--- a/заказы/статистика филиалы/2024/02,24/22,02,24 ПОКОМ КИ филиалы/дв 23,02,24 млрсч ки.xlsx
+++ b/заказы/статистика филиалы/2024/02,24/22,02,24 ПОКОМ КИ филиалы/дв 23,02,24 млрсч ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\22,02,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\02,24\22,02,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96070DA-A634-441D-AC76-A3987573821E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D331F17-18FD-4946-9A1A-174DA9C1BB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AC$77</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -780,7 +780,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
